--- a/biology/Médecine/TRPM4/TRPM4.xlsx
+++ b/biology/Médecine/TRPM4/TRPM4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le TPRM4 (pour « Transient receptor potential cation channel subfamily M (melastatin) member 4 ») ou mélastatine 4' est une protéine jouant comme canal ionique. Son gène, TPRM4, est situé sur le chromosome 19 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé par plusieurs organes, dont le cœur et joue le rôle d'un canal calcique[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé par plusieurs organes, dont le cœur et joue le rôle d'un canal calcique. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des mutations du gène, qu'elles entraînent un gain ou une perte de fonction, sont responsables de plusieurs maladies cardiaques occasionnant des troubles du rythme à type de syndrome de Brugada ou du QT long[6]. Elles peuvent causer également un trouble de la conduction cardiaque familial[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des mutations du gène, qu'elles entraînent un gain ou une perte de fonction, sont responsables de plusieurs maladies cardiaques occasionnant des troubles du rythme à type de syndrome de Brugada ou du QT long. Elles peuvent causer également un trouble de la conduction cardiaque familial.
 </t>
         </is>
       </c>
